--- a/src/test/java/com/ToolsQAProject/resource/TestData.xlsx
+++ b/src/test/java/com/ToolsQAProject/resource/TestData.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FormsToolsQA" sheetId="1" r:id="rId1"/>
+    <sheet name="RegisterParaBank" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t>TC_ID</t>
   </si>
@@ -128,6 +129,54 @@
   </si>
   <si>
     <t>March</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>SSN</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>TamilNadu</t>
+  </si>
+  <si>
+    <t>641607</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>hari@123</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>murugan</t>
+  </si>
+  <si>
+    <t>hariharan</t>
   </si>
 </sst>
 </file>
@@ -481,230 +530,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>35</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>28</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>25</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>26</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>28</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>29</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="jayaramanbala86@gmail.com"/>
-    <hyperlink ref="C2" r:id="rId2" display="DBdemo@123"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4" display="jayaramanbala86@gmail.com"/>
-    <hyperlink ref="C3" r:id="rId5" display="DBdemo@123"/>
-    <hyperlink ref="D3" r:id="rId6"/>
-    <hyperlink ref="B4" r:id="rId7" display="jayaramanbala86@gmail.com"/>
-    <hyperlink ref="C4" r:id="rId8" display="DBdemo@123"/>
-    <hyperlink ref="D4" r:id="rId9"/>
+    <hyperlink ref="C2" r:id="rId1" display="jayaramanbala86@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId2" display="DBdemo@123"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4" display="jayaramanbala86@gmail.com"/>
+    <hyperlink ref="D3" r:id="rId5" display="DBdemo@123"/>
+    <hyperlink ref="E3" r:id="rId6"/>
+    <hyperlink ref="C4" r:id="rId7" display="jayaramanbala86@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId8" display="DBdemo@123"/>
+    <hyperlink ref="E4" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/src/test/java/com/ToolsQAProject/resource/TestData.xlsx
+++ b/src/test/java/com/ToolsQAProject/resource/TestData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
   <si>
     <t>TC_ID</t>
   </si>
@@ -170,13 +170,16 @@
     <t>Firefox</t>
   </si>
   <si>
-    <t>Hari</t>
-  </si>
-  <si>
     <t>murugan</t>
   </si>
   <si>
-    <t>hariharan</t>
+    <t>Kalimuthu</t>
+  </si>
+  <si>
+    <t>haran02</t>
+  </si>
+  <si>
+    <t>sasi02</t>
   </si>
 </sst>
 </file>
@@ -533,7 +536,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -772,11 +775,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -841,10 +842,10 @@
         <v>49</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -871,6 +872,47 @@
         <v>47</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -878,8 +920,10 @@
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1"/>
     <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="L3" r:id="rId3"/>
+    <hyperlink ref="M3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/src/test/java/com/ToolsQAProject/resource/TestData.xlsx
+++ b/src/test/java/com/ToolsQAProject/resource/TestData.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890D3BB2-586E-4555-A936-A54D30C9DC0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView minimized="1" xWindow="3630" yWindow="3075" windowWidth="15375" windowHeight="7995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FormsToolsQA" sheetId="1" r:id="rId1"/>
     <sheet name="RegisterParaBank" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="57">
   <si>
     <t>TC_ID</t>
   </si>
@@ -167,26 +168,32 @@
     <t>Chrome</t>
   </si>
   <si>
-    <t>Firefox</t>
-  </si>
-  <si>
     <t>murugan</t>
   </si>
   <si>
     <t>Kalimuthu</t>
   </si>
   <si>
-    <t>haran02</t>
-  </si>
-  <si>
-    <t>sasi02</t>
+    <t>haran04</t>
+  </si>
+  <si>
+    <t>sasi04</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>TC006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +205,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -322,6 +335,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -357,6 +387,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,32 +579,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -657,12 +704,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -707,7 +754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -759,41 +806,43 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="jayaramanbala86@gmail.com"/>
-    <hyperlink ref="D2" r:id="rId2" display="DBdemo@123"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4" display="jayaramanbala86@gmail.com"/>
-    <hyperlink ref="D3" r:id="rId5" display="DBdemo@123"/>
-    <hyperlink ref="E3" r:id="rId6"/>
-    <hyperlink ref="C4" r:id="rId7" display="jayaramanbala86@gmail.com"/>
-    <hyperlink ref="D4" r:id="rId8" display="DBdemo@123"/>
-    <hyperlink ref="E4" r:id="rId9"/>
+    <hyperlink ref="C2" r:id="rId1" display="jayaramanbala86@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" display="DBdemo@123" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" display="jayaramanbala86@gmail.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D3" r:id="rId5" display="DBdemo@123" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C4" r:id="rId7" display="jayaramanbala86@gmail.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D4" r:id="rId8" display="DBdemo@123" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -834,7 +883,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -845,7 +894,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -866,7 +915,7 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>47</v>
@@ -875,18 +924,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -907,7 +956,7 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>47</v>
@@ -916,14 +965,187 @@
         <v>47</v>
       </c>
     </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="M2" r:id="rId2"/>
-    <hyperlink ref="L3" r:id="rId3"/>
-    <hyperlink ref="M3" r:id="rId4"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="M2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="L3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="M3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="L4" r:id="rId5" xr:uid="{C6AB063D-3883-4EB0-ADBB-86BB6146832B}"/>
+    <hyperlink ref="M4" r:id="rId6" xr:uid="{8FDF2B7B-C911-49B6-BDE1-021A060185BA}"/>
+    <hyperlink ref="L5" r:id="rId7" xr:uid="{7906FDC9-6C4A-4E30-960E-DF2DA7FC3EB3}"/>
+    <hyperlink ref="M5" r:id="rId8" xr:uid="{6A98DC30-6FF5-413F-B7F8-E17FDAD90417}"/>
+    <hyperlink ref="L6" r:id="rId9" xr:uid="{60971EA2-6653-470A-9875-C3C9F263D4F8}"/>
+    <hyperlink ref="M6" r:id="rId10" xr:uid="{C91B97AB-A604-48E7-95F2-8AB302E05834}"/>
+    <hyperlink ref="L7" r:id="rId11" xr:uid="{849A4622-12C0-450E-818B-B00F36D7A8A3}"/>
+    <hyperlink ref="M7" r:id="rId12" xr:uid="{2FE6B5E4-327C-4A9D-A545-D341BF4EF921}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>